--- a/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49BB7F-8F20-41F2-A18A-4B926BF2A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46392FD4-5A9D-4E66-AABA-6BDE1DDFDBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案4.人工增減業績</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>AdjPerfAmt</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -484,6 +480,13 @@
   </si>
   <si>
     <t>DrawdownDate &gt;= ,AND DrawdownDate &lt;=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:撥款(計件代碼變更)
+2:部分償還
+3:提前結案
+4:人工增減業績</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1132,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1296,7 +1299,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1356,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1375,7 +1378,7 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="32" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,7 +1387,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>68</v>
@@ -1444,7 +1447,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>72</v>
@@ -1465,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>73</v>
@@ -1484,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>78</v>
@@ -1508,10 +1511,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>22</v>
@@ -1523,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1535,7 +1538,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>22</v>
@@ -1553,10 +1556,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>22</v>
@@ -1568,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1577,10 +1580,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>22</v>
@@ -1592,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1601,7 +1604,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>74</v>
@@ -1719,7 +1722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -1835,7 +1838,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>91</v>
@@ -1865,13 +1868,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
